--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1564576.498837407</v>
+        <v>1671805.940235494</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10402326.54161545</v>
+        <v>10415774.98699509</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>118.4535900056854</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -710,16 +712,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>161.6677254012901</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>147.2453210572879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.0652044684133</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.9797665655259</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>55.9814103803652</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>23.65374124089939</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>124.5405726247503</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>285.4543636231289</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>260.1478989722385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>141.7345629166862</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.858350515366899</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>18.52833786981382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2138,13 +2140,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176216</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9065924712602</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.66990246485164</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>130.7812597870353</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1634.158487398107</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="C2" t="n">
-        <v>1634.158487398107</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="D2" t="n">
         <v>1634.158487398107</v>
@@ -4325,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2274.339388198049</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2020.758327462229</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2020.758327462229</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2020.758327462229</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>2020.758327462229</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y2" t="n">
-        <v>2020.758327462229</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
         <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.0825382046743</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C4" t="n">
-        <v>369.3498906720603</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
         <v>219.2332512597245</v>
@@ -4477,34 +4479,34 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329314</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>927.7205539329314</v>
+        <v>1095.837182910617</v>
       </c>
       <c r="X4" t="n">
-        <v>699.731003034914</v>
+        <v>867.8476320126</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.731003034914</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>2047.500788950814</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1678.538272010403</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.272573403652</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>934.4843208054078</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>523.4984160158003</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>107.7936657400892</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416652</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1509.970045669979</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1509.970045669979</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1220.851708173817</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>966.1672199679301</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>676.7500499309695</v>
       </c>
       <c r="X7" t="n">
-        <v>617.5020034330385</v>
+        <v>676.7500499309695</v>
       </c>
       <c r="Y7" t="n">
-        <v>491.70344522622</v>
+        <v>455.9574707874393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1471.210842731384</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1102.248325790972</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>743.9826271842214</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>358.1943745859772</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>351.2488738367737</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>339.5845276014667</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265601</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>2994.542934265601</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.9306290998774</v>
+        <v>474.7770143030104</v>
       </c>
       <c r="C10" t="n">
-        <v>917.9306290998774</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D10" t="n">
-        <v>767.8139896875416</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1530.975490847285</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1307.99701004202</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1018.878672545858</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>764.1941843399711</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.361223971664</v>
+        <v>474.7770143030104</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.371673073647</v>
+        <v>474.7770143030104</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.579093930117</v>
+        <v>474.7770143030104</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5029,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,70 +5175,70 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X13" t="n">
         <v>1501.108204237296</v>
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5367,16 +5369,16 @@
         <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5506,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5524,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>2680.685310603266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3278.063798229818</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1669.670361056914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,10 +5788,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E25" t="n">
         <v>631.7012443408906</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3260.450525729772</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C28" t="n">
-        <v>3091.514342801865</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D28" t="n">
-        <v>2941.39770338953</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807137</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
         <v>2337.686731866304</v>
@@ -6406,28 +6408,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>4690.833152398593</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>4434.982778844407</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>4180.29829063852</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>3890.88112060156</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>3662.891569703542</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>3442.098990560012</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6780,13 +6782,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7019,25 @@
         <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>2418.621364762389</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L36" t="n">
-        <v>2913.946970978148</v>
+        <v>2848.020469709692</v>
       </c>
       <c r="M36" t="n">
-        <v>3511.3254586047</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="N36" t="n">
-        <v>4138.923422159307</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O36" t="n">
-        <v>4690.833152398593</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R36" t="n">
         <v>4690.833152398593</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854706</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,13 +7253,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
         <v>1373.553594266881</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>3007.624207651098</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>2838.688024723192</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>2838.688024723192</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>2838.688024723192</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X40" t="n">
-        <v>1398.968683817745</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>3189.272672481338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>4437.229386686351</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>991.7436897307817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>822.8075068028749</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>672.6908673905391</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>524.777773808146</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>377.8878263102356</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1063.573343591573</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>894.6371606636665</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>744.5205212513307</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>596.6074276689376</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>449.7174801710272</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1466.014387565343</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1245.221808421813</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>186.5911984019045</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515141</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.30478226780068</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>116.6691671648106</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>233.6093054540142</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>45.37941682721009</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.5862749664502</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844822997</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>36.51445555167108</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>105.8542358274172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>34.74287850523351</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>910465.2744308597</v>
+        <v>917595.5874321448</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>910465.2744308597</v>
+        <v>917595.5874321447</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26347,13 +26349,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808328</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808324</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808330.4058658438</v>
+        <v>-808330.405865844</v>
       </c>
       <c r="C6" t="n">
-        <v>135000.1210402018</v>
+        <v>306421.3777100758</v>
       </c>
       <c r="D6" t="n">
-        <v>338438.8626523077</v>
+        <v>306421.3777100758</v>
       </c>
       <c r="E6" t="n">
-        <v>89992.98574050977</v>
+        <v>-92079.99407668131</v>
       </c>
       <c r="F6" t="n">
         <v>415405.4475478649</v>
       </c>
       <c r="G6" t="n">
-        <v>415405.4475478649</v>
+        <v>415405.4475478652</v>
       </c>
       <c r="H6" t="n">
-        <v>415405.4475478646</v>
+        <v>415405.4475478648</v>
       </c>
       <c r="I6" t="n">
         <v>415405.4475478649</v>
       </c>
       <c r="J6" t="n">
-        <v>247800.2697378825</v>
+        <v>247800.2697378824</v>
       </c>
       <c r="K6" t="n">
-        <v>366295.3548418105</v>
+        <v>415405.4475478649</v>
       </c>
       <c r="L6" t="n">
         <v>415405.4475478649</v>
       </c>
       <c r="M6" t="n">
-        <v>330350.4196123531</v>
+        <v>282798.1538189382</v>
       </c>
       <c r="N6" t="n">
-        <v>415405.4475478649</v>
+        <v>415405.4475478648</v>
       </c>
       <c r="O6" t="n">
-        <v>415405.4475478649</v>
+        <v>415405.447547865</v>
       </c>
       <c r="P6" t="n">
-        <v>415405.4475478649</v>
+        <v>415405.447547865</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>236.2294516149975</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.99045957894364</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20.00150004133997</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,19 +27587,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>3.457793868177703</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.7540750979547</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>245.0371421820402</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>171.0087191208381</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.04408072734449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15.56418893927651</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>126.0900396838151</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>4.69939972988297</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>191.8041098463706</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31042,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>456.5952253539618</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655508</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N33" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551099</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34211,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779087</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,7 +34459,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>351.4708102230528</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>577.7882979947784</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>411.6868389156661</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>514.7099619750464</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>322.6208179396315</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35963,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.4748895856766</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N33" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075094</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334643</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>211.4890361370313</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1671805.940235494</v>
+        <v>1667668.782985342</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>118.4535900056854</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>159.4667205089526</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>86.39586315681392</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>283.0652044684133</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>220.5049761501796</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>55.9814103803652</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>23.65374124089939</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>249.0226240560362</v>
       </c>
       <c r="H8" t="n">
-        <v>285.4543636231289</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.858350515366899</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>34.69211367164818</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576164</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.16281301712667</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E25" t="n">
-        <v>63.1628130171261</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>52.21533522728818</v>
       </c>
       <c r="D28" t="n">
-        <v>27.02919805176216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>105.7906564314211</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>108.9065924712602</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>238.3052845335088</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1753.808578312941</v>
+        <v>993.7429799877405</v>
       </c>
       <c r="C2" t="n">
-        <v>1753.808578312941</v>
+        <v>993.7429799877405</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>993.7429799877405</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>993.7429799877405</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>582.757075198133</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4327,10 +4327,10 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4345,37 +4345,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.808578312941</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1753.808578312941</v>
+        <v>1380.342820051862</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.916702154261</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488054</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756905</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
         <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
         <v>1515.131277087194</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.1991671823603</v>
+        <v>1006.015525202711</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2629842544534</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W4" t="n">
-        <v>1095.837182910617</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="X4" t="n">
-        <v>867.8476320126</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>867.8476320126</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.500788950814</v>
+        <v>993.7429799877395</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.538272010403</v>
+        <v>993.7429799877395</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.272573403652</v>
+        <v>993.7429799877395</v>
       </c>
       <c r="E5" t="n">
-        <v>934.4843208054078</v>
+        <v>993.7429799877395</v>
       </c>
       <c r="F5" t="n">
-        <v>523.4984160158003</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>107.7936657400892</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4567,10 +4567,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4603,16 +4603,16 @@
         <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926626</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.500788950814</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,19 +4649,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>455.9574707874393</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>455.9574707874393</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1509.970045669979</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1509.970045669979</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1220.851708173817</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>966.1672199679301</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>676.7500499309695</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>676.7500499309695</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>455.9574707874393</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1471.210842731384</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="C8" t="n">
-        <v>1102.248325790972</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="D8" t="n">
-        <v>743.9826271842214</v>
+        <v>1099.558948052861</v>
       </c>
       <c r="E8" t="n">
-        <v>358.1943745859772</v>
+        <v>713.770695454617</v>
       </c>
       <c r="F8" t="n">
-        <v>351.2488738367737</v>
+        <v>302.7847906650094</v>
       </c>
       <c r="G8" t="n">
-        <v>339.5845276014667</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795505</v>
+        <v>1457.824646659612</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.7770143030104</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1530.975490847285</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1307.99701004202</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1018.878672545858</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>764.1941843399711</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>474.7770143030104</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>474.7770143030104</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>474.7770143030104</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1051.622995973711</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>882.686813045804</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>732.5701736334682</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>584.6570800510751</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>437.7671325531647</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>270.5710332680447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>128.8592021102428</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408905</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2680.685310603266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3278.063798229818</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5652,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2227.361618603201</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>695.5020655703109</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>2561.485266376193</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218162</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2848.020469709692</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3445.398957336244</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3007.624207651098</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>2838.688024723192</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>2838.688024723192</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>2838.688024723192</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4471.231687421535</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>4182.156460765733</v>
+        <v>1956.350136867861</v>
       </c>
       <c r="V40" t="n">
-        <v>3927.471972559846</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W40" t="n">
-        <v>3638.054802522885</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X40" t="n">
-        <v>3410.065251624868</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>3189.272672481338</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7551,19 +7551,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>162.0073097921338</v>
+        <v>30.36925650589507</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515141</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.57372264691735</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E25" t="n">
-        <v>83.27114962944307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>115.0314858713397</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664502</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>180.3938179578231</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>36.51445555167108</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>47.87918985573532</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>917595.5874321448</v>
+        <v>917595.5874321447</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="14">
@@ -26316,28 +26316,28 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26346,16 +26346,16 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808330.405865844</v>
+        <v>-808330.4058658443</v>
       </c>
       <c r="C6" t="n">
-        <v>306421.3777100758</v>
+        <v>306421.3777100759</v>
       </c>
       <c r="D6" t="n">
-        <v>306421.3777100758</v>
+        <v>306421.3777100759</v>
       </c>
       <c r="E6" t="n">
-        <v>-92079.99407668131</v>
+        <v>-92427.37333103776</v>
       </c>
       <c r="F6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935079</v>
       </c>
       <c r="G6" t="n">
-        <v>415405.4475478652</v>
+        <v>415058.0682935078</v>
       </c>
       <c r="H6" t="n">
-        <v>415405.4475478648</v>
+        <v>415058.0682935079</v>
       </c>
       <c r="I6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935078</v>
       </c>
       <c r="J6" t="n">
-        <v>247800.2697378824</v>
+        <v>247452.8904835251</v>
       </c>
       <c r="K6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935079</v>
       </c>
       <c r="L6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935079</v>
       </c>
       <c r="M6" t="n">
-        <v>282798.1538189382</v>
+        <v>282450.7745645811</v>
       </c>
       <c r="N6" t="n">
-        <v>415405.4475478648</v>
+        <v>415058.0682935079</v>
       </c>
       <c r="O6" t="n">
-        <v>415405.447547865</v>
+        <v>415058.0682935079</v>
       </c>
       <c r="P6" t="n">
-        <v>415405.447547865</v>
+        <v>415058.0682935079</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>236.2294516149975</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>252.0809822640013</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>80.85095794181392</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>3.457793868177703</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>186.3710695915318</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>245.0371421820402</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>80.85095794181412</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>171.0087191208381</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>162.5250787169177</v>
       </c>
       <c r="H8" t="n">
-        <v>15.56418893927651</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>191.8041098463706</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>441.0292693655508</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,10 +33505,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>351.4708102230528</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>411.6868389156661</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750464</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>302.4748895856766</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,10 +37153,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.4890361370313</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1667668.782985342</v>
+        <v>1669429.313288128</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>159.4667205089526</v>
+        <v>396.9661851457015</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>86.39586315681392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>146.0389228387615</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>220.5049761501796</v>
+        <v>286.4836550127267</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>66.40055121331447</v>
       </c>
       <c r="I7" t="n">
-        <v>23.94563726208645</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>62.18412773543017</v>
       </c>
       <c r="G8" t="n">
-        <v>249.0226240560362</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110072</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>30.18061673893703</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>57.02356321678085</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.69211367164818</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>28.75188085812005</v>
+        <v>139.483705355054</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>52.21533522728818</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>193.3679902607849</v>
       </c>
     </row>
     <row r="29">
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>105.7906564314211</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629291</v>
       </c>
     </row>
     <row r="32">
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>170.9457618790573</v>
+        <v>163.9171048773177</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>238.3052845335088</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>30.97191586387568</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>993.7429799877405</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="C2" t="n">
-        <v>993.7429799877405</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="D2" t="n">
-        <v>993.7429799877405</v>
+        <v>1619.429681714014</v>
       </c>
       <c r="E2" t="n">
-        <v>993.7429799877405</v>
+        <v>1233.64142911577</v>
       </c>
       <c r="F2" t="n">
-        <v>582.757075198133</v>
+        <v>822.6555243261621</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4345,37 +4345,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926627</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583056</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312942</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.342820051862</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.342820051862</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.916702154261</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488054</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756905</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4406,52 +4406,52 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.015525202711</v>
+        <v>937.5665200750353</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D4" t="n">
         <v>768.6303371471284</v>
@@ -4485,55 +4485,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1386.348650116583</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1386.348650116583</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1386.348650116583</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074498</v>
+        <v>1386.348650116583</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074498</v>
+        <v>1386.348650116583</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>1158.359099218565</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>937.5665200750353</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>993.7429799877395</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="C5" t="n">
-        <v>993.7429799877395</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="D5" t="n">
-        <v>993.7429799877395</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="E5" t="n">
-        <v>993.7429799877395</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051861</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051861</v>
+        <v>1126.76175931604</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4704,37 +4704,37 @@
         <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748035</v>
+        <v>837.0793422748033</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624677</v>
+        <v>686.9627028624675</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800746</v>
+        <v>539.0496092800744</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821642</v>
+        <v>392.159661782164</v>
       </c>
       <c r="G7" t="n">
-        <v>224.1731970904428</v>
+        <v>224.1731970904426</v>
       </c>
       <c r="H7" t="n">
-        <v>75.43429895394902</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1457.824646659612</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C8" t="n">
-        <v>1457.824646659612</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D8" t="n">
-        <v>1099.558948052861</v>
+        <v>1285.984832846308</v>
       </c>
       <c r="E8" t="n">
-        <v>713.770695454617</v>
+        <v>900.1965802480638</v>
       </c>
       <c r="F8" t="n">
-        <v>302.7847906650094</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190806</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.290404920692</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1457.824646659612</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y8" t="n">
-        <v>1457.824646659612</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1605.960648621025</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1316.842311124863</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1062.157822918976</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1051.622995973711</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C13" t="n">
-        <v>882.686813045804</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D13" t="n">
-        <v>732.5701736334682</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>584.6570800510751</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>437.7671325531647</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>270.5710332680447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>128.8592021102428</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5600,13 +5600,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>168.7668121881176</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>835.5837926935558</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6420,16 +6420,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
         <v>631.7012443408906</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1870.601831589881</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.8178837532264</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.350136867861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1701.665648661974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1412.248478625014</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1184.258927726996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.4663485834661</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.678320081396</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589507</v>
+        <v>255.5240487471576</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>224.3355197601769</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>46.57372264691735</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8635921600923</v>
+        <v>9.131767663158371</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>66.09406519747959</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>115.0314858713397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>25.2166630913099</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>180.3938179578231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.45968844823099</v>
+        <v>53.48834544997061</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>47.87918985573532</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>35.40333084624601</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26352,7 +26352,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808330.4058658443</v>
+        <v>-808330.4058658436</v>
       </c>
       <c r="C6" t="n">
         <v>306421.3777100759</v>
       </c>
       <c r="D6" t="n">
-        <v>306421.3777100759</v>
+        <v>306421.3777100758</v>
       </c>
       <c r="E6" t="n">
-        <v>-92427.37333103776</v>
+        <v>-92114.73200211654</v>
       </c>
       <c r="F6" t="n">
-        <v>415058.0682935079</v>
+        <v>415370.709622429</v>
       </c>
       <c r="G6" t="n">
-        <v>415058.0682935078</v>
+        <v>415370.709622429</v>
       </c>
       <c r="H6" t="n">
-        <v>415058.0682935079</v>
+        <v>415370.709622429</v>
       </c>
       <c r="I6" t="n">
-        <v>415058.0682935078</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="J6" t="n">
-        <v>247452.8904835251</v>
+        <v>247765.5318124466</v>
       </c>
       <c r="K6" t="n">
-        <v>415058.0682935079</v>
+        <v>415370.709622429</v>
       </c>
       <c r="L6" t="n">
-        <v>415058.0682935079</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="M6" t="n">
-        <v>282450.7745645811</v>
+        <v>282763.4158935024</v>
       </c>
       <c r="N6" t="n">
-        <v>415058.0682935079</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="O6" t="n">
-        <v>415058.0682935079</v>
+        <v>415370.7096224293</v>
       </c>
       <c r="P6" t="n">
-        <v>415058.0682935079</v>
+        <v>415370.7096224292</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>252.0809822640013</v>
+        <v>14.58151762725248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>80.85095794181392</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>48.62353752297602</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>186.3710695915318</v>
+        <v>120.3923907289848</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>80.85095794181437</v>
       </c>
       <c r="I7" t="n">
-        <v>80.85095794181412</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>344.6919180062812</v>
       </c>
       <c r="G8" t="n">
-        <v>162.5250787169177</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28064,10 +28064,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>190.5680792582749</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294274</v>
+        <v>505.2035778706899</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>615.5326193530509</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
